--- a/biology/Zoologie/Dinosaur_from_the_Deep/Dinosaur_from_the_Deep.xlsx
+++ b/biology/Zoologie/Dinosaur_from_the_Deep/Dinosaur_from_the_Deep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dinosaur from the Deep est un film de science-fiction français réalisé en 1994 par Norbert Moutier, disponible uniquement en VHS. Ce film, à très petit budget et vu comme un mockbuster de Jurassic Park sorti un an auparavant, est considéré comme une série Z.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2004. Ne sachant pas comment exécuter un abominable criminel récidiviste, alors que la peine de mort vient d'être abolie, les experts du FBI et leurs avocats imaginent d'embarquer le condamné dans un voyage dans le temps, vers une époque où la sentence s'appliquait encore.
 Pour des raisons financières, cette expédition est couplée avec une mission scientifique sur la planète Terra, chargée de retrouver la trace des premiers dinosaures.
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean Rollin: Professeur Harry Nolan
 Sylvaine Charlet: Peggy Nolan
